--- a/data_science_captone_organizer.xlsx
+++ b/data_science_captone_organizer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bryan\Github\Coursera_Capstone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05422341-BBF4-4077-B033-7C72D237D249}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82229010-7716-45A8-B528-59ACB6EBF08F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9600" yWindow="3220" windowWidth="28800" windowHeight="15460" xr2:uid="{37DBC71B-95BB-45D8-9D6A-9857C9CCEA54}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
   <si>
     <t>junction type</t>
   </si>
@@ -132,13 +132,16 @@
   </si>
   <si>
     <t>ridge regression</t>
+  </si>
+  <si>
+    <t>collisiontype</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,6 +152,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -174,9 +183,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -494,7 +504,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29:F31"/>
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -543,7 +553,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D12" t="s">
+      <c r="D12" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E12" t="s">
@@ -573,7 +583,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D15" t="s">
+      <c r="D15" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E15" t="s">
@@ -581,7 +591,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D16" t="s">
+      <c r="D16" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E16" t="s">
@@ -589,7 +599,7 @@
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="D17" t="s">
+      <c r="D17" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E17" t="s">
@@ -597,7 +607,7 @@
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="D19" t="s">
+      <c r="D19" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E19" t="s">
@@ -605,7 +615,7 @@
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="D20" t="s">
+      <c r="D20" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E20" t="s">
@@ -613,11 +623,16 @@
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="D21" t="s">
+      <c r="D21" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E21" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="D23" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.35">
